--- a/biology/Microbiologie/Haptophryidae/Haptophryidae.xlsx
+++ b/biology/Microbiologie/Haptophryidae/Haptophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Haptophryidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Astomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Haptophrya, issu du grec hapt, « attacher à », et de οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié (susceptible de) s'attacher », peut-être en référence à la ventouse adhésive (parfois munie de crochets ou d'épines), dont dispose ce cilié, à son extrémité apicale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Haptophrya, issu du grec hapt, « attacher à », et de οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié (susceptible de) s'attacher », peut-être en référence à la ventouse adhésive (parfois munie de crochets ou d'épines), dont dispose ce cilié, à son extrémité apicale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Haptophryidae ont une grand taille (jusqu'à 2 000 μm de longueur, soit 2 mm). Leur forme est allongée. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c'est-à-dire uniforme), dense, à cinétiques convergeant antérieurement vers une ligne de suture en forme de fer à cheval, et à région thigmotactique, qui peut être soutenue par une armature corticale rigide. Il disposent d'une ventouse adhésive, bien visible, à l'extrémité apicale du corps, parfois munie de deux ou plusieurs crochets ou épines. Leurs division sont anisotomique, parfois avec caténulation. Leur macronoyau est globulaire à ellipsoïde allongé. Un micronoyau est présent. Le système de vacuoles contractiles se présente sous la forme d'un long canal, lequel est vidé par plusieurs pores[1]..
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Haptophryidae ont une grand taille (jusqu'à 2 000 μm de longueur, soit 2 mm). Leur forme est allongée. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c'est-à-dire uniforme), dense, à cinétiques convergeant antérieurement vers une ligne de suture en forme de fer à cheval, et à région thigmotactique, qui peut être soutenue par une armature corticale rigide. Il disposent d'une ventouse adhésive, bien visible, à l'extrémité apicale du corps, parfois munie de deux ou plusieurs crochets ou épines. Leurs division sont anisotomique, parfois avec caténulation. Leur macronoyau est globulaire à ellipsoïde allongé. Un micronoyau est présent. Le système de vacuoles contractiles se présente sous la forme d'un long canal, lequel est vidé par plusieurs pores..
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Haptophryidae vivent dans les habitats marins et d’eau douce du tube digestif de vers turbellariés et d'amphibiens anoures et urodèles[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Haptophryidae vivent dans les habitats marins et d’eau douce du tube digestif de vers turbellariés et d'amphibiens anoures et urodèles.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (29 août 2023)[2] et Lynn (2010)[1]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (29 août 2023) et Lynn (2010):
 Annelophrya Lom, 1959
 Cepedietta Kay, 1942
 Haptophrya Stein, 1867 genre type
@@ -641,9 +661,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Haptophryidae Cépède, 1923[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Haptophryidae Cépède, 1923.
 </t>
         </is>
       </c>
